--- a/helper_files/workplaces.xlsx
+++ b/helper_files/workplaces.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R40"/>
+  <dimension ref="A1:AF49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,642 +477,764 @@
           <t>devlet desteği*</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>Alan Adı</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="AB1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="AC1" t="inlineStr">
         <is>
           <t>Mahalle Adı</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="AE1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="AF1" t="inlineStr">
         <is>
           <t>Varolan İşletme Adı</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="M2" t="n">
+      <c r="Y2" t="n">
+        <v>27</v>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>Ahşap Teknolojisi</t>
+        </is>
+      </c>
+      <c r="AB2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>Adnan Menderes Mah.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="Y3" t="n">
         <v>1</v>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>Bilişim Teknolojileri</t>
         </is>
       </c>
-      <c r="O2" t="n">
+      <c r="AB3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>Ahmet Yesevi Mah.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="Y4" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>El Sanatları Teknolojisi</t>
+        </is>
+      </c>
+      <c r="AB4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>Ali Bekirli Mah.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="Y5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>Elektrik Elektronik Teknolojisi</t>
+        </is>
+      </c>
+      <c r="AB5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>Alibeyli Mah.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="Y6" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>Endüstriyel Otomasyon Teknolojileri</t>
+        </is>
+      </c>
+      <c r="AB6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>Baş Mah.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="Y7" t="n">
+        <v>28</v>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>Giyim Üretimi Teknolojisi</t>
+        </is>
+      </c>
+      <c r="AB7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>Cumhuriyet Mah.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="Y8" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>Grafik Ve Fotograf</t>
+        </is>
+      </c>
+      <c r="AB8" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>Dr.ihsan Göknal Mah.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="Y9" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>Güzellik Ve Saç Bakım Hizmetleri</t>
+        </is>
+      </c>
+      <c r="AB9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>Dumlupınar Mah.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="Y10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>Gıda Teknolojisi</t>
+        </is>
+      </c>
+      <c r="AB10" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>Esenevler Mah.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="Y11" t="n">
         <v>8</v>
       </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>Adnan Menderes Mah.</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="M3" t="n">
-        <v>2</v>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>Elsanatları Teknolojisi</t>
-        </is>
-      </c>
-      <c r="O3" t="n">
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>Harita Tapu Kadastro</t>
+        </is>
+      </c>
+      <c r="AB11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>Eyüp Sultan Mah.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="Y12" t="n">
         <v>9</v>
       </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>Ahmet Yesevi Mah.</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="M4" t="n">
-        <v>3</v>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>Elektrik Elektronik Teknolojisi</t>
-        </is>
-      </c>
-      <c r="O4" t="n">
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>Hayvan Yetiştiriciliği Ve Sağlığı</t>
+        </is>
+      </c>
+      <c r="AB12" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>Fakıuşağı Mah.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="Y13" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>Konaklama Ve Sayahat Hizmetleri</t>
+        </is>
+      </c>
+      <c r="AB13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>Fatih Mah.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="Y14" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>Kuyumculuk Teknolojisi</t>
+        </is>
+      </c>
+      <c r="AB14" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>Gebeli Mah.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="Y15" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>Makine Teknoljisi</t>
+        </is>
+      </c>
+      <c r="AB15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>Hacı Osmanlı Mah.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="Y16" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>Matbaa Teknolojisi</t>
+        </is>
+      </c>
+      <c r="AB16" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>Haraz Mah.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="Y17" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>Metal Teknolojisi</t>
+        </is>
+      </c>
+      <c r="AB17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>İstiklal Mah.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="Y18" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>Mobilya Ve İç Mekan Tasarımı</t>
+        </is>
+      </c>
+      <c r="AB18" t="n">
+        <v>24</v>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>Karacay Mah.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="Y19" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>Moda Tasarımı Teknolojileri</t>
+        </is>
+      </c>
+      <c r="AB19" t="n">
+        <v>25</v>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>Karataş Mah.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="Y20" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>Motorlu Araçlar Teknolojisi</t>
+        </is>
+      </c>
+      <c r="AB20" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>Kazım Karabekir Mah.</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="Y21" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>Müzik Aletleri Yapımı</t>
+        </is>
+      </c>
+      <c r="AB21" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>Kocatepe Mah.</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="Y22" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>Pazarlama Ve Perakende</t>
+        </is>
+      </c>
+      <c r="AB22" t="n">
+        <v>28</v>
+      </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>Kurtuluş Mah.</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="Y23" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>Plastik Teknolojisi</t>
+        </is>
+      </c>
+      <c r="AB23" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>M.akif Ersoy Mah.</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="Y24" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>Seramik Ve Cam Teknolojisi</t>
+        </is>
+      </c>
+      <c r="AB24" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>M.fevzi Çakmak Mah.</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="Y25" t="n">
+        <v>31</v>
+      </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>Soğutma Ve İklimlendirme</t>
+        </is>
+      </c>
+      <c r="AB25" t="n">
+        <v>31</v>
+      </c>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>Mevlana Mah.</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="Y26" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>Tarım</t>
+        </is>
+      </c>
+      <c r="AB26" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>Mimar Sinan Mah.</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="Y27" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>Tekstil Teknolojisi</t>
+        </is>
+      </c>
+      <c r="AB27" t="n">
+        <v>33</v>
+      </c>
+      <c r="AC27" t="inlineStr">
+        <is>
+          <t>Rahime Hatun Mah.</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="Y28" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z28" t="inlineStr">
+        <is>
+          <t>Tesisat Teknolojisi Ve İklimlendirme</t>
+        </is>
+      </c>
+      <c r="AB28" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC28" t="inlineStr">
+        <is>
+          <t>Raufbey Mah.</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="Y29" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z29" t="inlineStr">
+        <is>
+          <t>Ulaştırma Hizmetleri</t>
+        </is>
+      </c>
+      <c r="AB29" t="n">
+        <v>35</v>
+      </c>
+      <c r="AC29" t="inlineStr">
+        <is>
+          <t>Rızaiye Mah.</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="Y30" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z30" t="inlineStr">
+        <is>
+          <t>Yiyecek İçecek Hizmetleri</t>
+        </is>
+      </c>
+      <c r="AB30" t="n">
+        <v>36</v>
+      </c>
+      <c r="AC30" t="inlineStr">
+        <is>
+          <t>Selimiye Mah.</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="Y31" t="n">
         <v>10</v>
       </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>Ali Bekirli Mah.</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="M5" t="n">
-        <v>4</v>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>Endüstriyel Otomasyon Teknolojileri</t>
-        </is>
-      </c>
-      <c r="O5" t="n">
-        <v>11</v>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>Alibeyli Mah.</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>Gıda Teknolojisi</t>
-        </is>
-      </c>
-      <c r="O6" t="n">
-        <v>12</v>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>Baş Mah.</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="M7" t="n">
-        <v>6</v>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>Grafik Ve Fotograf</t>
-        </is>
-      </c>
-      <c r="O7" t="n">
-        <v>13</v>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>Cumhuriyet Mah.</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="M8" t="n">
-        <v>7</v>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>Güzellik Ve Saç Bakım Hizmetleri</t>
-        </is>
-      </c>
-      <c r="O8" t="n">
-        <v>14</v>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>Dr.ihsan Göknal Mah.</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="M9" t="n">
-        <v>8</v>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>Harita Tapu Kadastro</t>
-        </is>
-      </c>
-      <c r="O9" t="n">
-        <v>15</v>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>Dumlupınar Mah.</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="M10" t="n">
-        <v>9</v>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>Hayvan Yetiştiriciliği Ve Sağlığı</t>
-        </is>
-      </c>
-      <c r="O10" t="n">
-        <v>16</v>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>Esenevler Mah.</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="M11" t="n">
-        <v>10</v>
-      </c>
-      <c r="N11" t="inlineStr">
+      <c r="Z31" t="inlineStr">
         <is>
           <t>İnşaat Teknolojisi</t>
         </is>
       </c>
-      <c r="O11" t="n">
-        <v>17</v>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>Eyüp Sultan Mah.</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="M12" t="n">
-        <v>11</v>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>Kuyumculuk</t>
-        </is>
-      </c>
-      <c r="O12" t="n">
-        <v>18</v>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>Fakıuşağı Mah.</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="M13" t="n">
-        <v>12</v>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>Makine Teknoljisi</t>
-        </is>
-      </c>
-      <c r="O13" t="n">
-        <v>19</v>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>Fatih Mah.</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="M14" t="n">
-        <v>13</v>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>Matbaa Teknolojisi</t>
-        </is>
-      </c>
-      <c r="O14" t="n">
-        <v>20</v>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>Gebeli Mah.</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="M15" t="n">
-        <v>14</v>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>Metal Teknolojisi</t>
-        </is>
-      </c>
-      <c r="O15" t="n">
-        <v>21</v>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>Hacı Osmanlı Mah.</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="M16" t="n">
-        <v>15</v>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>Mobilya Ve İç Mekan Tasarımı</t>
-        </is>
-      </c>
-      <c r="O16" t="n">
-        <v>22</v>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>Haraz Mah.</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="M17" t="n">
-        <v>16</v>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>Moda Tasarımı Teknolojileri</t>
-        </is>
-      </c>
-      <c r="O17" t="n">
-        <v>23</v>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>İstiklal Mah.</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="M18" t="n">
-        <v>17</v>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>Motorlu Araçlar Teknolojisi</t>
-        </is>
-      </c>
-      <c r="O18" t="n">
-        <v>24</v>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>Karacay Mah.</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="M19" t="n">
-        <v>18</v>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>Müzik Aletleri Yapımı</t>
-        </is>
-      </c>
-      <c r="O19" t="n">
-        <v>25</v>
-      </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>Karataş Mah.</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="M20" t="n">
-        <v>19</v>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>Pazarlama Ve Perakende</t>
-        </is>
-      </c>
-      <c r="O20" t="n">
-        <v>26</v>
-      </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>Kazım Karabekir Mah.</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="M21" t="n">
-        <v>20</v>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>Plastik Teknolojisi</t>
-        </is>
-      </c>
-      <c r="O21" t="n">
-        <v>27</v>
-      </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>Kocatepe Mah.</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="M22" t="n">
-        <v>21</v>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>Seramik Ve Cam Teknolojisi</t>
-        </is>
-      </c>
-      <c r="O22" t="n">
-        <v>28</v>
-      </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>Kurtuluş Mah.</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="M23" t="n">
-        <v>22</v>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>Tarım</t>
-        </is>
-      </c>
-      <c r="O23" t="n">
-        <v>29</v>
-      </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>M.akif Ersoy Mah.</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="M24" t="n">
-        <v>23</v>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>Tekstil Teknolojisi</t>
-        </is>
-      </c>
-      <c r="O24" t="n">
-        <v>30</v>
-      </c>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t>M.fevzi Çakmak Mah.</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="M25" t="n">
-        <v>24</v>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>Tesisat Teknolojisi Ve İklimlendirme</t>
-        </is>
-      </c>
-      <c r="O25" t="n">
-        <v>31</v>
-      </c>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t>Mevlana Mah.</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="M26" t="n">
-        <v>25</v>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>Ulaştırma Hizmetleri</t>
-        </is>
-      </c>
-      <c r="O26" t="n">
-        <v>32</v>
-      </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>Mimar Sinan Mah.</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="M27" t="n">
-        <v>26</v>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>Yiyecek İçecek Hizmetleri</t>
-        </is>
-      </c>
-      <c r="O27" t="n">
-        <v>33</v>
-      </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>Rahime Hatun Mah.</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="O28" t="n">
-        <v>34</v>
-      </c>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>Raufbey Mah.</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="O29" t="n">
-        <v>35</v>
-      </c>
-      <c r="P29" t="inlineStr">
-        <is>
-          <t>Rızaiye Mah.</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="O30" t="n">
-        <v>36</v>
-      </c>
-      <c r="P30" t="inlineStr">
-        <is>
-          <t>Selimiye Mah.</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="O31" t="n">
+      <c r="AB31" t="n">
         <v>37</v>
       </c>
-      <c r="P31" t="inlineStr">
+      <c r="AC31" t="inlineStr">
         <is>
           <t>Şirinevler Mah.</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="O32" t="n">
+      <c r="AB32" t="n">
         <v>38</v>
       </c>
-      <c r="P32" t="inlineStr">
+      <c r="AC32" t="inlineStr">
         <is>
           <t>Ulaşlı Mah.</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="O33" t="n">
+      <c r="AB33" t="n">
         <v>39</v>
       </c>
-      <c r="P33" t="inlineStr">
+      <c r="AC33" t="inlineStr">
         <is>
           <t>Vatan Mah.</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="O34" t="n">
+      <c r="AB34" t="n">
         <v>40</v>
       </c>
-      <c r="P34" t="inlineStr">
+      <c r="AC34" t="inlineStr">
         <is>
           <t>Yaverpaşa Mah.</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="O35" t="n">
+      <c r="AB35" t="n">
         <v>41</v>
       </c>
-      <c r="P35" t="inlineStr">
+      <c r="AC35" t="inlineStr">
         <is>
           <t>Yedi Ocak Mah.</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="O36" t="n">
+      <c r="AB36" t="n">
         <v>42</v>
       </c>
-      <c r="P36" t="inlineStr">
+      <c r="AC36" t="inlineStr">
         <is>
           <t>Yeni Mah.</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="O37" t="n">
+      <c r="AB37" t="n">
         <v>43</v>
       </c>
-      <c r="P37" t="inlineStr">
+      <c r="AC37" t="inlineStr">
         <is>
           <t>Yeşil Yurt Mah.</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="O38" t="n">
+      <c r="AB38" t="n">
         <v>44</v>
       </c>
-      <c r="P38" t="inlineStr">
+      <c r="AC38" t="inlineStr">
         <is>
           <t>Yeşiltepe Mah.</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="O39" t="n">
+      <c r="AB39" t="n">
         <v>45</v>
       </c>
-      <c r="P39" t="inlineStr">
+      <c r="AC39" t="inlineStr">
         <is>
           <t>Yıldırım Beyazıt Mah.</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="O40" t="n">
+      <c r="AB40" t="n">
         <v>46</v>
       </c>
-      <c r="P40" t="inlineStr">
+      <c r="AC40" t="inlineStr">
         <is>
           <t>Yunus Emre Mah.</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="AB41" t="n">
+        <v>47</v>
+      </c>
+      <c r="AC41" t="inlineStr">
+        <is>
+          <t>Akyar Köyü</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="AB42" t="n">
+        <v>49</v>
+      </c>
+      <c r="AC42" t="inlineStr">
+        <is>
+          <t>Toprakkale Osb</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="AB43" t="n">
+        <v>50</v>
+      </c>
+      <c r="AC43" t="inlineStr">
+        <is>
+          <t>Çona Köyü</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="AB44" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC44" t="inlineStr">
+        <is>
+          <t>Bahçe İslam Mah.</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="AB45" t="n">
+        <v>52</v>
+      </c>
+      <c r="AC45" t="inlineStr">
+        <is>
+          <t>Toprakkale Merkez</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="AB46" t="n">
+        <v>53</v>
+      </c>
+      <c r="AC46" t="inlineStr">
+        <is>
+          <t>Osmaniye Merkez</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="AB47" t="n">
+        <v>54</v>
+      </c>
+      <c r="AC47" t="inlineStr">
+        <is>
+          <t>Düziçi Merkez</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="AB48" t="n">
+        <v>55</v>
+      </c>
+      <c r="AC48" t="inlineStr">
+        <is>
+          <t>Bahçe Merkez</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="AB49" t="n">
+        <v>56</v>
+      </c>
+      <c r="AC49" t="inlineStr">
+        <is>
+          <t>Ek Sanayi Sitesi</t>
         </is>
       </c>
     </row>
   </sheetData>
   <dataValidations count="3">
     <dataValidation sqref="E2:E10000" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
-      <formula1>=$P$2:$P$40</formula1>
+      <formula1>=$AC$2:$AC$49</formula1>
     </dataValidation>
     <dataValidation sqref="C2:C10000" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
-      <formula1>=$N$2:$N$27</formula1>
+      <formula1>=$Z$2:$Z$31</formula1>
     </dataValidation>
     <dataValidation sqref="K2:K10000" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
       <formula1>"E,H"</formula1>
